--- a/services/order_details.xlsx
+++ b/services/order_details.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11111"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="15120" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -43,13 +43,22 @@
   </si>
   <si>
     <t>xl</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>created</t>
+  </si>
+  <si>
+    <t>dissmiss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +66,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF008080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,15 +95,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -134,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,9 +191,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,6 +243,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -375,16 +436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,8 +458,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -411,8 +475,11 @@
       <c r="D2" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -425,8 +492,11 @@
       <c r="D3" s="1">
         <v>500</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -439,8 +509,11 @@
       <c r="D4" s="1">
         <v>478</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -453,8 +526,11 @@
       <c r="D5" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -467,8 +543,11 @@
       <c r="D6" s="1">
         <v>654</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -481,8 +560,11 @@
       <c r="D7" s="1">
         <v>3695</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -495,8 +577,11 @@
       <c r="D8" s="1">
         <v>224</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -509,8 +594,11 @@
       <c r="D9" s="1">
         <v>524</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -523,8 +611,11 @@
       <c r="D10" s="1">
         <v>254</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -536,6 +627,9 @@
       </c>
       <c r="D11" s="1">
         <v>675</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -545,12 +639,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -558,12 +652,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
